--- a/data/processed/victimas_segun_medio_trans.xlsx
+++ b/data/processed/victimas_segun_medio_trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Downloads\proyecto_accidentes\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E7B545-94F7-4F2E-AE64-D03C39C5AF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D84762-450B-49F7-8048-09B74DC4C227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4392969F-3005-40FD-AD1B-C5820B49D376}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>CLASES DE USUARIOS</t>
   </si>
@@ -42,21 +42,10 @@
     <t>Peatón</t>
   </si>
   <si>
-    <t>Núm. de implicados</t>
-  </si>
-  <si>
     <t>VÍCTIMAS</t>
   </si>
   <si>
     <t>FALLECIDOS</t>
-  </si>
-  <si>
-    <t>HERIDOS
-HOSPITALIZADOS</t>
-  </si>
-  <si>
-    <t>HERIDOS NO
-HOSPITALIZADOS</t>
   </si>
   <si>
     <t>Bicicleta</t>
@@ -123,7 +112,14 @@
     <t>Se desconoce</t>
   </si>
   <si>
-    <t>Nº de implicados</t>
+    <t>Nº implicados</t>
+  </si>
+  <si>
+    <t>HOSPITALIZADOS</t>
+  </si>
+  <si>
+    <t>NO
+HOSPITALIZADOS</t>
   </si>
 </sst>
 </file>
@@ -132,11 +128,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="########0"/>
-    <numFmt numFmtId="166" formatCode="##################################################0"/>
-    <numFmt numFmtId="167" formatCode="##,###,###,###,###,###,##0"/>
-    <numFmt numFmtId="168" formatCode="##############################################0.000"/>
+    <numFmt numFmtId="165" formatCode="##################################################0"/>
+    <numFmt numFmtId="166" formatCode="##,###,###,###,###,###,##0"/>
+    <numFmt numFmtId="167" formatCode="##############################################0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,16 +228,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -251,10 +247,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -573,137 +569,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E46872-E653-4EA2-BD3F-52AB199D2FAE}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+    <row r="1" spans="1:21">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
       <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
       <c r="Q1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-    </row>
-    <row r="2" spans="1:26" ht="51" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+    </row>
+    <row r="2" spans="1:21" ht="38.4">
+      <c r="A2" s="9"/>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="T2" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -767,25 +748,10 @@
       <c r="U3" s="5">
         <v>532</v>
       </c>
-      <c r="V3" s="4">
-        <v>13002</v>
-      </c>
-      <c r="W3" s="4">
-        <v>12322</v>
-      </c>
-      <c r="X3" s="4">
-        <v>213</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>1449</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>10660</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4">
         <v>2667</v>
@@ -847,25 +813,10 @@
       <c r="U4" s="5">
         <v>0</v>
       </c>
-      <c r="V4" s="4">
-        <v>6094</v>
-      </c>
-      <c r="W4" s="4">
-        <v>5418</v>
-      </c>
-      <c r="X4" s="4">
-        <v>21</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>394</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>5003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4">
         <v>180</v>
@@ -927,25 +878,10 @@
       <c r="U5" s="5">
         <v>0</v>
       </c>
-      <c r="V5" s="4">
-        <v>4708</v>
-      </c>
-      <c r="W5" s="4">
-        <v>4188</v>
-      </c>
-      <c r="X5" s="4">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>293</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>3888</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4">
         <v>812</v>
@@ -1007,25 +943,10 @@
       <c r="U6" s="5">
         <v>0</v>
       </c>
-      <c r="V6" s="4">
-        <v>5636</v>
-      </c>
-      <c r="W6" s="4">
-        <v>5226</v>
-      </c>
-      <c r="X6" s="4">
-        <v>16</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>333</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>4877</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4">
         <v>8766</v>
@@ -1087,25 +1008,10 @@
       <c r="U7" s="5">
         <v>0</v>
       </c>
-      <c r="V7" s="4">
-        <v>22923</v>
-      </c>
-      <c r="W7" s="4">
-        <v>21158</v>
-      </c>
-      <c r="X7" s="4">
-        <v>126</v>
-      </c>
-      <c r="Y7" s="4">
-        <v>1516</v>
-      </c>
-      <c r="Z7" s="4">
-        <v>19516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4">
         <v>312</v>
@@ -1167,25 +1073,10 @@
       <c r="U8" s="5">
         <v>0</v>
       </c>
-      <c r="V8" s="4">
-        <v>1978</v>
-      </c>
-      <c r="W8" s="4">
-        <v>588</v>
-      </c>
-      <c r="X8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="4">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="4">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4">
         <v>65005</v>
@@ -1247,25 +1138,10 @@
       <c r="U9" s="5">
         <v>0</v>
       </c>
-      <c r="V9" s="4">
-        <v>72383</v>
-      </c>
-      <c r="W9" s="4">
-        <v>24791</v>
-      </c>
-      <c r="X9" s="4">
-        <v>67</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>446</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>24278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4">
         <v>148</v>
@@ -1327,25 +1203,10 @@
       <c r="U10" s="5">
         <v>0</v>
       </c>
-      <c r="V10" s="4">
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="W10" s="4">
-        <v>4</v>
-      </c>
-      <c r="X10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="B11" s="4">
         <v>5369</v>
@@ -1407,25 +1268,10 @@
       <c r="U11" s="5">
         <v>0</v>
       </c>
-      <c r="V11" s="4">
-        <v>6737</v>
-      </c>
-      <c r="W11" s="4">
-        <v>1582</v>
-      </c>
-      <c r="X11" s="4">
-        <v>6</v>
-      </c>
-      <c r="Y11" s="4">
-        <v>34</v>
-      </c>
-      <c r="Z11" s="4">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4">
         <v>969</v>
@@ -1487,25 +1333,10 @@
       <c r="U12" s="5">
         <v>0</v>
       </c>
-      <c r="V12" s="4">
-        <v>979</v>
-      </c>
-      <c r="W12" s="4">
-        <v>204</v>
-      </c>
-      <c r="X12" s="4">
-        <v>3</v>
-      </c>
-      <c r="Y12" s="4">
-        <v>7</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4">
         <v>7</v>
@@ -1567,25 +1398,10 @@
       <c r="U13" s="5">
         <v>0</v>
       </c>
-      <c r="V13" s="4">
-        <v>0</v>
-      </c>
-      <c r="W13" s="4">
-        <v>0</v>
-      </c>
-      <c r="X13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4">
         <v>930</v>
@@ -1647,25 +1463,10 @@
       <c r="U14" s="5">
         <v>0</v>
       </c>
-      <c r="V14" s="4">
-        <v>594</v>
-      </c>
-      <c r="W14" s="4">
-        <v>97</v>
-      </c>
-      <c r="X14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="4">
-        <v>7</v>
-      </c>
-      <c r="Z14" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4">
         <v>34</v>
@@ -1727,25 +1528,10 @@
       <c r="U15" s="5">
         <v>0</v>
       </c>
-      <c r="V15" s="4">
-        <v>3</v>
-      </c>
-      <c r="W15" s="4">
-        <v>0</v>
-      </c>
-      <c r="X15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>865</v>
@@ -1807,25 +1593,10 @@
       <c r="U16" s="5">
         <v>0</v>
       </c>
-      <c r="V16" s="4">
-        <v>216</v>
-      </c>
-      <c r="W16" s="4">
-        <v>26</v>
-      </c>
-      <c r="X16" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4">
         <v>1318</v>
@@ -1887,25 +1658,10 @@
       <c r="U17" s="5">
         <v>0</v>
       </c>
-      <c r="V17" s="4">
-        <v>81</v>
-      </c>
-      <c r="W17" s="4">
-        <v>16</v>
-      </c>
-      <c r="X17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:21" ht="36">
       <c r="A18" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4">
         <v>260</v>
@@ -1967,25 +1723,10 @@
       <c r="U18" s="5">
         <v>0</v>
       </c>
-      <c r="V18" s="4">
-        <v>192</v>
-      </c>
-      <c r="W18" s="4">
-        <v>44</v>
-      </c>
-      <c r="X18" s="4">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z18" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4">
         <v>1027</v>
@@ -2047,25 +1788,10 @@
       <c r="U19" s="5">
         <v>0</v>
       </c>
-      <c r="V19" s="4">
-        <v>4189</v>
-      </c>
-      <c r="W19" s="4">
-        <v>2000</v>
-      </c>
-      <c r="X19" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y19" s="4">
-        <v>30</v>
-      </c>
-      <c r="Z19" s="4">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" s="4">
         <v>99</v>
@@ -2127,25 +1853,10 @@
       <c r="U20" s="5">
         <v>0</v>
       </c>
-      <c r="V20" s="4">
-        <v>20</v>
-      </c>
-      <c r="W20" s="4">
-        <v>4</v>
-      </c>
-      <c r="X20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B21" s="4">
         <v>153</v>
@@ -2207,25 +1918,10 @@
       <c r="U21" s="5">
         <v>0</v>
       </c>
-      <c r="V21" s="4">
-        <v>222</v>
-      </c>
-      <c r="W21" s="4">
-        <v>160</v>
-      </c>
-      <c r="X21" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>22</v>
-      </c>
-      <c r="Z21" s="4">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" s="4">
         <v>57</v>
@@ -2287,25 +1983,10 @@
       <c r="U22" s="5">
         <v>0</v>
       </c>
-      <c r="V22" s="4">
-        <v>51</v>
-      </c>
-      <c r="W22" s="4">
-        <v>16</v>
-      </c>
-      <c r="X22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B23" s="4">
         <v>243</v>
@@ -2367,25 +2048,10 @@
       <c r="U23" s="5">
         <v>0</v>
       </c>
-      <c r="V23" s="4">
-        <v>2120</v>
-      </c>
-      <c r="W23" s="4">
-        <v>1637</v>
-      </c>
-      <c r="X23" s="4">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="4">
-        <v>56</v>
-      </c>
-      <c r="Z23" s="4">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24" s="4">
         <v>177</v>
@@ -2447,23 +2113,8 @@
       <c r="U24" s="5">
         <v>0</v>
       </c>
-      <c r="V24" s="4">
-        <v>909</v>
-      </c>
-      <c r="W24" s="4">
-        <v>132</v>
-      </c>
-      <c r="X24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="4">
-        <v>10</v>
-      </c>
-      <c r="Z24" s="4">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="8" t="s">
         <v>1</v>
       </c>
@@ -2527,90 +2178,9 @@
       <c r="U25" s="4">
         <v>532</v>
       </c>
-      <c r="V25" s="4">
-        <v>143051</v>
-      </c>
-      <c r="W25" s="4">
-        <v>79613</v>
-      </c>
-      <c r="X25" s="4">
-        <v>473</v>
-      </c>
-      <c r="Y25" s="4">
-        <v>4610</v>
-      </c>
-      <c r="Z25" s="4">
-        <v>74530</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="4">
-        <v>84344</v>
-      </c>
-      <c r="C26" s="4">
-        <v>49963</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1273</v>
-      </c>
-      <c r="E26" s="4">
-        <v>3892</v>
-      </c>
-      <c r="F26" s="4">
-        <v>44798</v>
-      </c>
-      <c r="G26" s="4">
-        <v>57344</v>
-      </c>
-      <c r="H26" s="4">
-        <v>34756</v>
-      </c>
-      <c r="I26" s="4">
-        <v>899</v>
-      </c>
-      <c r="J26" s="4">
-        <v>2826</v>
-      </c>
-      <c r="K26" s="4">
-        <v>31031</v>
-      </c>
-      <c r="L26" s="4">
-        <v>26200</v>
-      </c>
-      <c r="M26" s="4">
-        <v>14453</v>
-      </c>
-      <c r="N26" s="4">
-        <v>239</v>
-      </c>
-      <c r="O26" s="4">
-        <v>892</v>
-      </c>
-      <c r="P26" s="4">
-        <v>13322</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>800</v>
-      </c>
-      <c r="R26" s="4">
-        <v>754</v>
-      </c>
-      <c r="S26" s="4">
-        <v>135</v>
-      </c>
-      <c r="T26" s="4">
-        <v>174</v>
-      </c>
-      <c r="U26" s="4">
-        <v>445</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="V1:Z1"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
